--- a/References/Graph.xlsx
+++ b/References/Graph.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mr Tan\Desktop\for_draft_paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mr Tan\Desktop\for_draft_paper\draft_paper\paper_draft\References\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F43B5F3-C848-43FE-91E4-DCC11E212EAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEE719E-D42B-49D9-801B-DAAFD5F42FCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2625" yWindow="2625" windowWidth="21600" windowHeight="11400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graph" sheetId="1" r:id="rId1"/>
@@ -224,18 +224,6 @@
                 <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -246,24 +234,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2509</c:v>
+                  <c:v>533</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>705</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>223</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -380,18 +365,6 @@
                 <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -402,25 +375,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3104</c:v>
+                  <c:v>634</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>663</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>136</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -536,18 +506,6 @@
                 <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -558,24 +516,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4001</c:v>
+                  <c:v>816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>432</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -643,7 +598,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>conseCUTIVE loss</a:t>
+                  <a:t>Burstiness value</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -756,12 +711,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of consecutive loss</a:t>
+                  <a:t>Burstiness time count</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3006,8 +2957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE128"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="O1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="AB28" sqref="AB28"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="U10" zoomScale="91" workbookViewId="0">
+      <selection activeCell="AC30" sqref="AC30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3097,13 +3048,13 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>2509</v>
+        <v>533</v>
       </c>
       <c r="T2">
-        <v>3104</v>
+        <v>634</v>
       </c>
       <c r="U2">
-        <v>4001</v>
+        <v>816</v>
       </c>
       <c r="AA2" s="2">
         <v>100</v>
@@ -3151,13 +3102,13 @@
         <v>1</v>
       </c>
       <c r="S3">
-        <v>705</v>
+        <v>139</v>
       </c>
       <c r="T3">
-        <v>663</v>
+        <v>129</v>
       </c>
       <c r="U3">
-        <v>432</v>
+        <v>84</v>
       </c>
       <c r="AA3" s="2">
         <v>250</v>
@@ -3205,13 +3156,13 @@
         <v>2</v>
       </c>
       <c r="S4">
-        <v>223</v>
+        <v>50</v>
       </c>
       <c r="T4">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="U4">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="AA4" s="2">
         <v>500</v>
@@ -3259,13 +3210,13 @@
         <v>3</v>
       </c>
       <c r="S5">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="T5">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="2">
         <v>1000</v>
@@ -3313,10 +3264,10 @@
         <v>4</v>
       </c>
       <c r="S6">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="T6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -3367,7 +3318,7 @@
         <v>5</v>
       </c>
       <c r="S7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -3417,18 +3368,6 @@
       <c r="O8">
         <v>0</v>
       </c>
-      <c r="R8">
-        <v>6</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
       <c r="AA8" s="2">
         <v>15000</v>
       </c>
@@ -3471,18 +3410,6 @@
       <c r="O9">
         <v>0</v>
       </c>
-      <c r="R9">
-        <v>7</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -3512,18 +3439,6 @@
       <c r="O10">
         <v>0</v>
       </c>
-      <c r="R10">
-        <v>8</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -3551,18 +3466,6 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>9</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
         <v>0</v>
       </c>
     </row>
